--- a/biology/Médecine/Cystoscopie/Cystoscopie.xlsx
+++ b/biology/Médecine/Cystoscopie/Cystoscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cystoscopie est un examen médical permettant d'étudier la paroi interne (muqueuse) de la vessie afin d'y déceler d'éventuelles anomalies.
 </t>
@@ -511,7 +523,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La cystoscopie est indiquée en cas :
 d'antécédents familiaux ou personnels de cancer de la vessie,
@@ -549,7 +563,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un examen qui se déroule en médecine ambulatoire, sous anesthésie locale pour les hommes et dure environ une demi-heure. Le médecin explore les parois internes de la vessie grâce à un cystoscope (souple ou rigide) qui est un tube mince muni à son extrémité d'une lentille reliée à une source lumineuse (endoscopie).
 Une fois le cystoscope introduit dans l’urètre, il pourra alors commencer son exploration en remontant jusqu’à la vessie et visualiser alors les muqueuses de celle-ci. Le médecin pourra éventuellement effectuer des prélèvements.
@@ -583,7 +599,9 @@
           <t>Complications possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infections urinaires et les saignements urinaires transitoires sont les rares complications de cet examen.
 </t>
@@ -614,9 +632,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières mentions sont faites par Philipp Bozzini (en) en 1807. C'est l'invention des lampes électriques par Thomas Edison qui a permis à la cystoscopie de se développer[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières mentions sont faites par Philipp Bozzini (en) en 1807. C'est l'invention des lampes électriques par Thomas Edison qui a permis à la cystoscopie de se développer.
 </t>
         </is>
       </c>
